--- a/std_subject/std_subject_2009.xlsx
+++ b/std_subject/std_subject_2009.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All_Python\machine_learning\std_subject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8300F7C1-6CAE-4FDB-885A-FDBA905F5CF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62603140-187E-4491-BC83-647BAC644537}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" xr2:uid="{59F26082-CC03-41F6-ABC2-43763BF2181B}"/>
   </bookViews>
@@ -21639,8 +21639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97FB6FE-9AAA-4662-B1A1-A08F36FFF90C}">
   <dimension ref="A1:C3540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3518" workbookViewId="0">
-      <selection activeCell="C3540" sqref="C3540"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
